--- a/src/raft/test.xlsx
+++ b/src/raft/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fankun/GitHub/6.824/src/raft/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCD92FB-3356-E74C-BFDE-32E52B95C37E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="32780" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>apply</t>
   </si>
@@ -26,18 +32,20 @@
   <si>
     <t>?</t>
   </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-&gt;2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,167 +57,31 @@
       <sz val="10.5"/>
       <color rgb="FFA9B7C6"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,194 +106,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -429,255 +115,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,15 +130,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -708,62 +143,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1050,21 +456,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:CC62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:CX62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="2" spans="3:19">
+    <row r="2" spans="2:44">
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -1117,22 +523,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1">
+    <row r="3" spans="2:44">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1"/>
+    <row r="4" spans="2:44">
+      <c r="B4" s="7"/>
       <c r="C4" s="2">
         <v>2318</v>
       </c>
     </row>
     <row r="5" spans="2:44">
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="2">
@@ -1262,8 +668,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:44">
-      <c r="B6" s="3"/>
+    <row r="6" spans="2:44" ht="15">
+      <c r="B6" s="8"/>
       <c r="C6" s="2">
         <v>2318</v>
       </c>
@@ -1312,10 +718,10 @@
       <c r="R6">
         <v>545</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="5">
         <v>326</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="5">
         <v>7337</v>
       </c>
       <c r="U6">
@@ -1391,36 +797,36 @@
         <v>5192</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1">
+    <row r="7" spans="2:44">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="1"/>
+    <row r="8" spans="2:44">
+      <c r="B8" s="7"/>
       <c r="C8" s="2">
         <v>2318</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1">
+    <row r="9" spans="2:44">
+      <c r="B9" s="7">
         <v>3</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="1"/>
+    <row r="10" spans="2:44">
+      <c r="B10" s="7"/>
       <c r="C10" s="2">
         <v>2318</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="4">
+    <row r="11" spans="2:44">
+      <c r="B11" s="9">
         <v>4</v>
       </c>
       <c r="C11" s="2">
@@ -1442,8 +848,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="4"/>
+    <row r="12" spans="2:44">
+      <c r="B12" s="9"/>
       <c r="C12" s="2">
         <v>2318</v>
       </c>
@@ -1484,13 +890,13 @@
         <v>8928</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:87">
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:87">
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="3:68">
+    <row r="31" spans="2:87">
       <c r="C31" s="1">
         <v>1</v>
       </c>
@@ -1700,23 +1106,80 @@
       <c r="BP31" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="1">
+      <c r="BQ31" s="1">
+        <v>67</v>
+      </c>
+      <c r="BR31" s="1">
+        <v>68</v>
+      </c>
+      <c r="BS31" s="1">
+        <v>69</v>
+      </c>
+      <c r="BT31" s="1">
+        <v>70</v>
+      </c>
+      <c r="BU31" s="1">
+        <v>71</v>
+      </c>
+      <c r="BV31" s="1">
+        <v>72</v>
+      </c>
+      <c r="BW31" s="1">
+        <v>73</v>
+      </c>
+      <c r="BX31" s="1">
+        <v>74</v>
+      </c>
+      <c r="BY31" s="1">
+        <v>75</v>
+      </c>
+      <c r="BZ31" s="1">
+        <v>76</v>
+      </c>
+      <c r="CA31" s="1">
+        <v>77</v>
+      </c>
+      <c r="CB31" s="1">
+        <v>78</v>
+      </c>
+      <c r="CC31" s="1">
+        <v>79</v>
+      </c>
+      <c r="CD31" s="1">
+        <v>80</v>
+      </c>
+      <c r="CE31" s="1">
+        <v>81</v>
+      </c>
+      <c r="CF31" s="1">
+        <v>82</v>
+      </c>
+      <c r="CG31" s="1">
+        <v>83</v>
+      </c>
+      <c r="CH31" s="1">
+        <v>84</v>
+      </c>
+      <c r="CI31" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:87">
+      <c r="B32" s="7">
         <v>0</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1"/>
+    <row r="33" spans="2:102">
+      <c r="B33" s="7"/>
       <c r="C33" s="2">
         <v>5008</v>
       </c>
     </row>
-    <row r="34" spans="2:37">
-      <c r="B34" s="3">
+    <row r="34" spans="2:102">
+      <c r="B34" s="8">
         <v>1</v>
       </c>
       <c r="C34" s="2">
@@ -1824,9 +1287,78 @@
       <c r="AK34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" ht="14.25" spans="2:37">
-      <c r="B35" s="3"/>
+      <c r="AL34">
+        <v>7</v>
+      </c>
+      <c r="AM34">
+        <v>7</v>
+      </c>
+      <c r="AN34">
+        <v>7</v>
+      </c>
+      <c r="AO34">
+        <v>7</v>
+      </c>
+      <c r="AP34">
+        <v>7</v>
+      </c>
+      <c r="AQ34">
+        <v>7</v>
+      </c>
+      <c r="AR34">
+        <v>7</v>
+      </c>
+      <c r="AS34">
+        <v>7</v>
+      </c>
+      <c r="AT34">
+        <v>7</v>
+      </c>
+      <c r="AU34">
+        <v>7</v>
+      </c>
+      <c r="AV34">
+        <v>7</v>
+      </c>
+      <c r="AW34">
+        <v>7</v>
+      </c>
+      <c r="AX34">
+        <v>7</v>
+      </c>
+      <c r="AY34">
+        <v>7</v>
+      </c>
+      <c r="AZ34">
+        <v>7</v>
+      </c>
+      <c r="BA34">
+        <v>7</v>
+      </c>
+      <c r="BB34">
+        <v>7</v>
+      </c>
+      <c r="BC34">
+        <v>7</v>
+      </c>
+      <c r="BD34">
+        <v>7</v>
+      </c>
+      <c r="BE34">
+        <v>7</v>
+      </c>
+      <c r="BF34">
+        <v>7</v>
+      </c>
+      <c r="BG34">
+        <v>7</v>
+      </c>
+      <c r="BH34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:102" ht="15">
+      <c r="B35" s="8"/>
       <c r="C35" s="2">
         <v>5008</v>
       </c>
@@ -1875,10 +1407,10 @@
       <c r="R35">
         <v>6014</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S35" s="6">
         <v>385</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T35" s="6">
         <v>8949</v>
       </c>
       <c r="U35">
@@ -1932,9 +1464,78 @@
       <c r="AK35">
         <v>2742</v>
       </c>
-    </row>
-    <row r="36" spans="2:63">
-      <c r="B36" s="5">
+      <c r="AL35">
+        <v>3463</v>
+      </c>
+      <c r="AM35">
+        <v>789</v>
+      </c>
+      <c r="AN35">
+        <v>8863</v>
+      </c>
+      <c r="AO35">
+        <v>1184</v>
+      </c>
+      <c r="AP35">
+        <v>343</v>
+      </c>
+      <c r="AQ35">
+        <v>2501</v>
+      </c>
+      <c r="AR35">
+        <v>2611</v>
+      </c>
+      <c r="AS35">
+        <v>3182</v>
+      </c>
+      <c r="AT35">
+        <v>652</v>
+      </c>
+      <c r="AU35">
+        <v>7829</v>
+      </c>
+      <c r="AV35">
+        <v>6140</v>
+      </c>
+      <c r="AW35">
+        <v>4928</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>5568</v>
+      </c>
+      <c r="AZ35">
+        <v>2507</v>
+      </c>
+      <c r="BA35">
+        <v>4439</v>
+      </c>
+      <c r="BB35">
+        <v>4026</v>
+      </c>
+      <c r="BC35">
+        <v>6786</v>
+      </c>
+      <c r="BD35">
+        <v>6629</v>
+      </c>
+      <c r="BE35">
+        <v>4151</v>
+      </c>
+      <c r="BF35">
+        <v>4740</v>
+      </c>
+      <c r="BG35">
+        <v>3187</v>
+      </c>
+      <c r="BH35">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="36" spans="2:102">
+      <c r="B36" s="10">
         <v>2</v>
       </c>
       <c r="C36" s="2">
@@ -2120,9 +1721,18 @@
       <c r="BK36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:63">
-      <c r="B37" s="5"/>
+      <c r="BL36">
+        <v>3</v>
+      </c>
+      <c r="BM36">
+        <v>3</v>
+      </c>
+      <c r="BN36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:102">
+      <c r="B37" s="10"/>
       <c r="C37" s="2">
         <v>5008</v>
       </c>
@@ -2307,11 +1917,11 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" s="6">
+    <row r="38" spans="2:102">
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38">
@@ -2332,10 +1942,76 @@
       <c r="I38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="1"/>
-      <c r="C39" s="6">
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>9</v>
+      </c>
+      <c r="M38">
+        <v>9</v>
+      </c>
+      <c r="N38">
+        <v>9</v>
+      </c>
+      <c r="O38">
+        <v>9</v>
+      </c>
+      <c r="P38">
+        <v>9</v>
+      </c>
+      <c r="Q38">
+        <v>9</v>
+      </c>
+      <c r="R38">
+        <v>9</v>
+      </c>
+      <c r="S38">
+        <v>9</v>
+      </c>
+      <c r="T38">
+        <v>9</v>
+      </c>
+      <c r="U38">
+        <v>9</v>
+      </c>
+      <c r="V38">
+        <v>9</v>
+      </c>
+      <c r="W38">
+        <v>9</v>
+      </c>
+      <c r="X38">
+        <v>9</v>
+      </c>
+      <c r="Y38">
+        <v>9</v>
+      </c>
+      <c r="Z38">
+        <v>9</v>
+      </c>
+      <c r="AA38">
+        <v>9</v>
+      </c>
+      <c r="AB38">
+        <v>9</v>
+      </c>
+      <c r="AC38">
+        <v>9</v>
+      </c>
+      <c r="AD38">
+        <v>9</v>
+      </c>
+      <c r="AE38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:102">
+      <c r="B39" s="7"/>
+      <c r="C39" s="3">
         <v>5008</v>
       </c>
       <c r="D39">
@@ -2356,9 +2032,75 @@
       <c r="I39">
         <v>8339</v>
       </c>
-    </row>
-    <row r="40" spans="2:81">
-      <c r="B40" s="3">
+      <c r="J39">
+        <v>5195</v>
+      </c>
+      <c r="K39">
+        <v>2090</v>
+      </c>
+      <c r="L39">
+        <v>8118</v>
+      </c>
+      <c r="M39">
+        <v>5397</v>
+      </c>
+      <c r="N39">
+        <v>6882</v>
+      </c>
+      <c r="O39">
+        <v>4838</v>
+      </c>
+      <c r="P39">
+        <v>4592</v>
+      </c>
+      <c r="Q39">
+        <v>147</v>
+      </c>
+      <c r="R39">
+        <v>8657</v>
+      </c>
+      <c r="S39">
+        <v>8388</v>
+      </c>
+      <c r="T39">
+        <v>5279</v>
+      </c>
+      <c r="U39">
+        <v>1762</v>
+      </c>
+      <c r="V39">
+        <v>5481</v>
+      </c>
+      <c r="W39">
+        <v>100</v>
+      </c>
+      <c r="X39">
+        <v>8259</v>
+      </c>
+      <c r="Y39">
+        <v>72</v>
+      </c>
+      <c r="Z39">
+        <v>6607</v>
+      </c>
+      <c r="AA39">
+        <v>8460</v>
+      </c>
+      <c r="AB39">
+        <v>3842</v>
+      </c>
+      <c r="AC39">
+        <v>4323</v>
+      </c>
+      <c r="AD39">
+        <v>307</v>
+      </c>
+      <c r="AE39">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="40" spans="2:102">
+      <c r="B40" s="8">
         <v>4</v>
       </c>
       <c r="C40" s="2">
@@ -2367,19 +2109,19 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="4">
         <v>2</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="4">
         <v>2</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="4">
         <v>2</v>
       </c>
       <c r="J40">
@@ -2598,28 +2340,91 @@
       <c r="CC40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:81">
-      <c r="B41" s="3"/>
+      <c r="CD40">
+        <v>2</v>
+      </c>
+      <c r="CE40">
+        <v>2</v>
+      </c>
+      <c r="CF40">
+        <v>2</v>
+      </c>
+      <c r="CG40">
+        <v>2</v>
+      </c>
+      <c r="CH40">
+        <v>2</v>
+      </c>
+      <c r="CI40">
+        <v>2</v>
+      </c>
+      <c r="CJ40">
+        <v>2</v>
+      </c>
+      <c r="CK40">
+        <v>2</v>
+      </c>
+      <c r="CL40">
+        <v>2</v>
+      </c>
+      <c r="CM40">
+        <v>2</v>
+      </c>
+      <c r="CN40">
+        <v>2</v>
+      </c>
+      <c r="CO40">
+        <v>2</v>
+      </c>
+      <c r="CP40">
+        <v>2</v>
+      </c>
+      <c r="CQ40">
+        <v>2</v>
+      </c>
+      <c r="CR40">
+        <v>2</v>
+      </c>
+      <c r="CS40">
+        <v>2</v>
+      </c>
+      <c r="CT40">
+        <v>2</v>
+      </c>
+      <c r="CU40">
+        <v>2</v>
+      </c>
+      <c r="CV40">
+        <v>2</v>
+      </c>
+      <c r="CW40">
+        <v>2</v>
+      </c>
+      <c r="CX40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:102">
+      <c r="B41" s="8"/>
       <c r="C41" s="2">
         <v>5008</v>
       </c>
       <c r="D41">
         <v>2654</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="4">
         <v>3647</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="4">
         <v>8620</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="4">
         <v>6455</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="4">
         <v>8506</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <v>5541</v>
       </c>
       <c r="J41">
@@ -2838,14 +2643,157 @@
       <c r="CC41">
         <v>1073</v>
       </c>
-    </row>
-    <row r="48" spans="2:3">
+      <c r="CD41">
+        <v>9732</v>
+      </c>
+      <c r="CE41">
+        <v>4774</v>
+      </c>
+      <c r="CF41">
+        <v>8624</v>
+      </c>
+      <c r="CG41">
+        <v>2950</v>
+      </c>
+      <c r="CH41">
+        <v>5048</v>
+      </c>
+      <c r="CI41">
+        <v>8617</v>
+      </c>
+      <c r="CJ41">
+        <v>7884</v>
+      </c>
+      <c r="CK41">
+        <v>3812</v>
+      </c>
+      <c r="CL41">
+        <v>5518</v>
+      </c>
+      <c r="CM41">
+        <v>2632</v>
+      </c>
+      <c r="CN41">
+        <v>8521</v>
+      </c>
+      <c r="CO41">
+        <v>37</v>
+      </c>
+      <c r="CP41">
+        <v>3339</v>
+      </c>
+      <c r="CQ41">
+        <v>6358</v>
+      </c>
+      <c r="CR41">
+        <v>3191</v>
+      </c>
+      <c r="CS41">
+        <v>1601</v>
+      </c>
+      <c r="CT41">
+        <v>9651</v>
+      </c>
+      <c r="CU41">
+        <v>4951</v>
+      </c>
+      <c r="CV41">
+        <v>1980</v>
+      </c>
+      <c r="CW41">
+        <v>9125</v>
+      </c>
+      <c r="CX41">
+        <v>6539</v>
+      </c>
+    </row>
+    <row r="45" spans="2:102">
+      <c r="F45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>5827</v>
+      </c>
+      <c r="H45">
+        <v>3416</v>
+      </c>
+      <c r="I45">
+        <v>8339</v>
+      </c>
+      <c r="J45">
+        <v>5195</v>
+      </c>
+      <c r="K45">
+        <v>2090</v>
+      </c>
+      <c r="L45">
+        <v>8118</v>
+      </c>
+      <c r="M45">
+        <v>5397</v>
+      </c>
+      <c r="N45">
+        <v>6882</v>
+      </c>
+      <c r="O45">
+        <v>4838</v>
+      </c>
+      <c r="P45">
+        <v>4592</v>
+      </c>
+      <c r="Q45">
+        <v>147</v>
+      </c>
+      <c r="R45">
+        <v>8657</v>
+      </c>
+      <c r="S45">
+        <v>8388</v>
+      </c>
+      <c r="T45">
+        <v>5279</v>
+      </c>
+      <c r="U45">
+        <v>1762</v>
+      </c>
+      <c r="V45">
+        <v>5481</v>
+      </c>
+      <c r="W45">
+        <v>100</v>
+      </c>
+      <c r="X45">
+        <v>8259</v>
+      </c>
+      <c r="Y45">
+        <v>72</v>
+      </c>
+      <c r="Z45">
+        <v>6607</v>
+      </c>
+      <c r="AA45">
+        <v>8460</v>
+      </c>
+      <c r="AB45">
+        <v>3842</v>
+      </c>
+      <c r="AC45">
+        <v>4323</v>
+      </c>
+      <c r="AD45">
+        <v>307</v>
+      </c>
+      <c r="AE45">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="48" spans="2:102">
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:7">
       <c r="B53" t="s">
         <v>1</v>
       </c>
@@ -2861,8 +2809,22 @@
       <c r="F53">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="2:3">
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60">
         <v>554</v>
       </c>
@@ -2870,65 +2832,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:7">
       <c r="B61">
         <v>570</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:7">
       <c r="B62">
         <v>614</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>